--- a/utils/data/intervalliConfidenza/Test1/CI_Test1_500ms.xlsx
+++ b/utils/data/intervalliConfidenza/Test1/CI_Test1_500ms.xlsx
@@ -427,34 +427,34 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <v>108</v>
       </c>
       <c r="E2">
-        <v>37.96296296296296</v>
+        <v>36.11111111111111</v>
       </c>
       <c r="F2">
-        <v>0.6941349999999999</v>
+        <v>0.33006</v>
       </c>
       <c r="G2">
-        <v>1.677549</v>
+        <v>0.023036</v>
       </c>
       <c r="H2">
-        <v>0.2619891380824692</v>
+        <v>0.003688712151053987</v>
       </c>
       <c r="I2">
-        <v>0.5134987106416397</v>
+        <v>0.007229875816065815</v>
       </c>
       <c r="J2">
-        <v>1.20763371064164</v>
+        <v>0.3372898758160658</v>
       </c>
       <c r="K2">
-        <v>0.1806362893583603</v>
+        <v>0.3228301241839342</v>
       </c>
     </row>
   </sheetData>
